--- a/bin/Debug/netcoreapp3.1/outfile.xlsx
+++ b/bin/Debug/netcoreapp3.1/outfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vsprojects\GetResultFromUTCOMP\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EE548C-F0B8-44E6-B82E-A1853EEB2264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06CF9387-63A8-4AAB-9B98-BE58A3E3C44E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="1095" windowWidth="21660" windowHeight="14490" xr2:uid="{105944EC-1FF7-4047-B0D7-569E68810B45}"/>
+    <workbookView xWindow="2880" yWindow="1095" windowWidth="21660" windowHeight="14490" xr2:uid="{1C1AB218-8473-4204-94C4-17547BE4146A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,33 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Modelo</t>
+    <t>&lt;Case name&gt;</t>
   </si>
   <si>
-    <t>Fabricante</t>
+    <t>Time (days)</t>
   </si>
   <si>
-    <t>Ano</t>
+    <t>Oil rate (STB/d)</t>
   </si>
   <si>
-    <t>Clio</t>
-  </si>
-  <si>
-    <t>Renault</t>
-  </si>
-  <si>
-    <t>Palio</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>Sentra</t>
-  </si>
-  <si>
-    <t>Nissan</t>
+    <t>Gas rate (STB/d)</t>
   </si>
 </sst>
 </file>
@@ -75,15 +60,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -91,35 +82,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -137,6 +106,613 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$B$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="153"/>
+                <c:pt idx="0">
+                  <c:v>5036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3424</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3530</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3535</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3516</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3491</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3475</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3469</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3460</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3456</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3453</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3447</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3445</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3440</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3434</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3429</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3481</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3494</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3492</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3464</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3441</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3432</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3405</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3390</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3376</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3312</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3284</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3268</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3251</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3233</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3224</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3208</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3212</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3196</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3173</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3146</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3075</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3012</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2947</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2914</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2848</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2814</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2781</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2771</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2445</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2364</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2137</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2094</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2055</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1878</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1852</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1827</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1714</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1694</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1655</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1637</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1438</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1425</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1388</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1241</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1196</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1187</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A0F-4838-A3B8-3B206067700C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="517330928"/>
+        <c:axId val="517331248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="517330928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="517331248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="517331248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="517330928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A43DEB11-1495-4970-AE52-F78F0C154695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,64 +1011,1720 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF4AD9C-5841-4DD4-9A6A-928D93ABCA2A}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEBA287-440B-4250-961C-12E20E697DB2}">
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2011</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2016</v>
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>5036</v>
+      </c>
+      <c r="C3">
+        <v>559500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="B4">
+        <v>3180</v>
+      </c>
+      <c r="C4">
+        <v>353300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2.847</v>
+      </c>
+      <c r="B5">
+        <v>3496</v>
+      </c>
+      <c r="C5">
+        <v>388400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.8470000000000004</v>
+      </c>
+      <c r="B6">
+        <v>3453</v>
+      </c>
+      <c r="C6">
+        <v>383700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6.8470000000000004</v>
+      </c>
+      <c r="B7">
+        <v>3410</v>
+      </c>
+      <c r="C7">
+        <v>378800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8.8469999999999995</v>
+      </c>
+      <c r="B8">
+        <v>3398</v>
+      </c>
+      <c r="C8">
+        <v>377500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.85</v>
+      </c>
+      <c r="B9">
+        <v>3399</v>
+      </c>
+      <c r="C9">
+        <v>377700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12.85</v>
+      </c>
+      <c r="B10">
+        <v>3406</v>
+      </c>
+      <c r="C10">
+        <v>378400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14.85</v>
+      </c>
+      <c r="B11">
+        <v>3415</v>
+      </c>
+      <c r="C11">
+        <v>379400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="B12">
+        <v>3424</v>
+      </c>
+      <c r="C12">
+        <v>380500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B13">
+        <v>3434</v>
+      </c>
+      <c r="C13">
+        <v>381700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20.85</v>
+      </c>
+      <c r="B14">
+        <v>3443</v>
+      </c>
+      <c r="C14">
+        <v>382900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22.85</v>
+      </c>
+      <c r="B15">
+        <v>3530</v>
+      </c>
+      <c r="C15">
+        <v>392800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24.85</v>
+      </c>
+      <c r="B16">
+        <v>3535</v>
+      </c>
+      <c r="C16">
+        <v>393700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>26.85</v>
+      </c>
+      <c r="B17">
+        <v>3600</v>
+      </c>
+      <c r="C17">
+        <v>401400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28.85</v>
+      </c>
+      <c r="B18">
+        <v>3581</v>
+      </c>
+      <c r="C18">
+        <v>399900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30.85</v>
+      </c>
+      <c r="B19">
+        <v>3555</v>
+      </c>
+      <c r="C19">
+        <v>397800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>32.85</v>
+      </c>
+      <c r="B20">
+        <v>3533</v>
+      </c>
+      <c r="C20">
+        <v>396400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>34.85</v>
+      </c>
+      <c r="B21">
+        <v>3516</v>
+      </c>
+      <c r="C21">
+        <v>395700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>36.85</v>
+      </c>
+      <c r="B22">
+        <v>3502</v>
+      </c>
+      <c r="C22">
+        <v>395700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>38.85</v>
+      </c>
+      <c r="B23">
+        <v>3491</v>
+      </c>
+      <c r="C23">
+        <v>396400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>40.85</v>
+      </c>
+      <c r="B24">
+        <v>3483</v>
+      </c>
+      <c r="C24">
+        <v>397600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>42.85</v>
+      </c>
+      <c r="B25">
+        <v>3475</v>
+      </c>
+      <c r="C25">
+        <v>399300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>44.85</v>
+      </c>
+      <c r="B26">
+        <v>3469</v>
+      </c>
+      <c r="C26">
+        <v>401700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>46.85</v>
+      </c>
+      <c r="B27">
+        <v>3464</v>
+      </c>
+      <c r="C27">
+        <v>404700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>48.85</v>
+      </c>
+      <c r="B28">
+        <v>3460</v>
+      </c>
+      <c r="C28">
+        <v>408200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50.85</v>
+      </c>
+      <c r="B29">
+        <v>3456</v>
+      </c>
+      <c r="C29">
+        <v>412500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>52.85</v>
+      </c>
+      <c r="B30">
+        <v>3453</v>
+      </c>
+      <c r="C30">
+        <v>417300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>54.85</v>
+      </c>
+      <c r="B31">
+        <v>3450</v>
+      </c>
+      <c r="C31">
+        <v>422900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>56.85</v>
+      </c>
+      <c r="B32">
+        <v>3447</v>
+      </c>
+      <c r="C32">
+        <v>429200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>58.85</v>
+      </c>
+      <c r="B33">
+        <v>3445</v>
+      </c>
+      <c r="C33">
+        <v>436300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>60.85</v>
+      </c>
+      <c r="B34">
+        <v>3443</v>
+      </c>
+      <c r="C34">
+        <v>444100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>62.85</v>
+      </c>
+      <c r="B35">
+        <v>3440</v>
+      </c>
+      <c r="C35">
+        <v>452700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="B36">
+        <v>3438</v>
+      </c>
+      <c r="C36">
+        <v>462200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>66.849999999999994</v>
+      </c>
+      <c r="B37">
+        <v>3436</v>
+      </c>
+      <c r="C37">
+        <v>472500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="B38">
+        <v>3434</v>
+      </c>
+      <c r="C38">
+        <v>483700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="B39">
+        <v>3431</v>
+      </c>
+      <c r="C39">
+        <v>495900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="B40">
+        <v>3429</v>
+      </c>
+      <c r="C40">
+        <v>508900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>74.849999999999994</v>
+      </c>
+      <c r="B41">
+        <v>3481</v>
+      </c>
+      <c r="C41">
+        <v>531400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="B42">
+        <v>3494</v>
+      </c>
+      <c r="C42">
+        <v>549600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="B43">
+        <v>3489</v>
+      </c>
+      <c r="C43">
+        <v>566100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="B44">
+        <v>3499</v>
+      </c>
+      <c r="C44">
+        <v>586400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>82.85</v>
+      </c>
+      <c r="B45">
+        <v>3502</v>
+      </c>
+      <c r="C45">
+        <v>607000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>84.85</v>
+      </c>
+      <c r="B46">
+        <v>3492</v>
+      </c>
+      <c r="C46">
+        <v>626900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>86.85</v>
+      </c>
+      <c r="B47">
+        <v>3479</v>
+      </c>
+      <c r="C47">
+        <v>647600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>88.85</v>
+      </c>
+      <c r="B48">
+        <v>3464</v>
+      </c>
+      <c r="C48">
+        <v>669500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>90.85</v>
+      </c>
+      <c r="B49">
+        <v>3450</v>
+      </c>
+      <c r="C49">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>92.85</v>
+      </c>
+      <c r="B50">
+        <v>3441</v>
+      </c>
+      <c r="C50">
+        <v>719200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>94.85</v>
+      </c>
+      <c r="B51">
+        <v>3441</v>
+      </c>
+      <c r="C51">
+        <v>749200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>96.85</v>
+      </c>
+      <c r="B52">
+        <v>3432</v>
+      </c>
+      <c r="C52">
+        <v>779000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>98.85</v>
+      </c>
+      <c r="B53">
+        <v>3419</v>
+      </c>
+      <c r="C53">
+        <v>809900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100.8</v>
+      </c>
+      <c r="B54">
+        <v>3405</v>
+      </c>
+      <c r="C54">
+        <v>842300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>102.8</v>
+      </c>
+      <c r="B55">
+        <v>3390</v>
+      </c>
+      <c r="C55">
+        <v>876300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>104.8</v>
+      </c>
+      <c r="B56">
+        <v>3376</v>
+      </c>
+      <c r="C56">
+        <v>912000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>106.8</v>
+      </c>
+      <c r="B57">
+        <v>3361</v>
+      </c>
+      <c r="C57">
+        <v>949500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>108.8</v>
+      </c>
+      <c r="B58">
+        <v>3346</v>
+      </c>
+      <c r="C58">
+        <v>988800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>110.8</v>
+      </c>
+      <c r="B59">
+        <v>3331</v>
+      </c>
+      <c r="C59">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>112.8</v>
+      </c>
+      <c r="B60">
+        <v>3321</v>
+      </c>
+      <c r="C60">
+        <v>1074000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>114.8</v>
+      </c>
+      <c r="B61">
+        <v>3312</v>
+      </c>
+      <c r="C61">
+        <v>1120000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>116.8</v>
+      </c>
+      <c r="B62">
+        <v>3299</v>
+      </c>
+      <c r="C62">
+        <v>1167000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>118.8</v>
+      </c>
+      <c r="B63">
+        <v>3284</v>
+      </c>
+      <c r="C63">
+        <v>1215000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>120.8</v>
+      </c>
+      <c r="B64">
+        <v>3268</v>
+      </c>
+      <c r="C64">
+        <v>1264000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>122.8</v>
+      </c>
+      <c r="B65">
+        <v>3251</v>
+      </c>
+      <c r="C65">
+        <v>1315000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>124.8</v>
+      </c>
+      <c r="B66">
+        <v>3234</v>
+      </c>
+      <c r="C66">
+        <v>1367000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>126.8</v>
+      </c>
+      <c r="B67">
+        <v>3233</v>
+      </c>
+      <c r="C67">
+        <v>1427000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="B68">
+        <v>3224</v>
+      </c>
+      <c r="C68">
+        <v>1487000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="B69">
+        <v>3208</v>
+      </c>
+      <c r="C69">
+        <v>1546000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="B70">
+        <v>3212</v>
+      </c>
+      <c r="C70">
+        <v>1618000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="B71">
+        <v>3196</v>
+      </c>
+      <c r="C71">
+        <v>1686000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="B72">
+        <v>3173</v>
+      </c>
+      <c r="C72">
+        <v>1754000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="B73">
+        <v>3146</v>
+      </c>
+      <c r="C73">
+        <v>1826000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>140.80000000000001</v>
+      </c>
+      <c r="B74">
+        <v>3117</v>
+      </c>
+      <c r="C74">
+        <v>1901000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="B75">
+        <v>3088</v>
+      </c>
+      <c r="C75">
+        <v>1979000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="B76">
+        <v>3075</v>
+      </c>
+      <c r="C76">
+        <v>2013000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="B77">
+        <v>3044</v>
+      </c>
+      <c r="C77">
+        <v>2096000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="B78">
+        <v>3012</v>
+      </c>
+      <c r="C78">
+        <v>2181000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="B79">
+        <v>2980</v>
+      </c>
+      <c r="C79">
+        <v>2268000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="B80">
+        <v>2947</v>
+      </c>
+      <c r="C80">
+        <v>2357000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="B81">
+        <v>2914</v>
+      </c>
+      <c r="C81">
+        <v>2447000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>155.69999999999999</v>
+      </c>
+      <c r="B82">
+        <v>2881</v>
+      </c>
+      <c r="C82">
+        <v>2538000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="B83">
+        <v>2848</v>
+      </c>
+      <c r="C83">
+        <v>2629000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="B84">
+        <v>2814</v>
+      </c>
+      <c r="C84">
+        <v>2720000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="B85">
+        <v>2781</v>
+      </c>
+      <c r="C85">
+        <v>2811000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="B86">
+        <v>2771</v>
+      </c>
+      <c r="C86">
+        <v>2931000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>165.7</v>
+      </c>
+      <c r="B87">
+        <v>2750</v>
+      </c>
+      <c r="C87">
+        <v>3096000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>167.7</v>
+      </c>
+      <c r="B88">
+        <v>2681</v>
+      </c>
+      <c r="C88">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>169.7</v>
+      </c>
+      <c r="B89">
+        <v>2546</v>
+      </c>
+      <c r="C89">
+        <v>3793000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>171.7</v>
+      </c>
+      <c r="B90">
+        <v>2445</v>
+      </c>
+      <c r="C90">
+        <v>4015000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>173.7</v>
+      </c>
+      <c r="B91">
+        <v>2364</v>
+      </c>
+      <c r="C91">
+        <v>4182000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>175.7</v>
+      </c>
+      <c r="B92">
+        <v>2296</v>
+      </c>
+      <c r="C92">
+        <v>4322000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>177.7</v>
+      </c>
+      <c r="B93">
+        <v>2237</v>
+      </c>
+      <c r="C93">
+        <v>4445000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>179.7</v>
+      </c>
+      <c r="B94">
+        <v>2184</v>
+      </c>
+      <c r="C94">
+        <v>4556000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>181.7</v>
+      </c>
+      <c r="B95">
+        <v>2137</v>
+      </c>
+      <c r="C95">
+        <v>4658000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>183.7</v>
+      </c>
+      <c r="B96">
+        <v>2094</v>
+      </c>
+      <c r="C96">
+        <v>4752000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>185.7</v>
+      </c>
+      <c r="B97">
+        <v>2055</v>
+      </c>
+      <c r="C97">
+        <v>4840000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>187.7</v>
+      </c>
+      <c r="B98">
+        <v>2018</v>
+      </c>
+      <c r="C98">
+        <v>4921000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>189.7</v>
+      </c>
+      <c r="B99">
+        <v>1991</v>
+      </c>
+      <c r="C99">
+        <v>5014000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>191.7</v>
+      </c>
+      <c r="B100">
+        <v>1963</v>
+      </c>
+      <c r="C100">
+        <v>5096000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>193.7</v>
+      </c>
+      <c r="B101">
+        <v>1934</v>
+      </c>
+      <c r="C101">
+        <v>5168000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>195.7</v>
+      </c>
+      <c r="B102">
+        <v>1905</v>
+      </c>
+      <c r="C102">
+        <v>5235000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>197.7</v>
+      </c>
+      <c r="B103">
+        <v>1878</v>
+      </c>
+      <c r="C103">
+        <v>5299000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>199.7</v>
+      </c>
+      <c r="B104">
+        <v>1852</v>
+      </c>
+      <c r="C104">
+        <v>5360000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>201.7</v>
+      </c>
+      <c r="B105">
+        <v>1827</v>
+      </c>
+      <c r="C105">
+        <v>5418000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>203.7</v>
+      </c>
+      <c r="B106">
+        <v>1802</v>
+      </c>
+      <c r="C106">
+        <v>5474000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>205.7</v>
+      </c>
+      <c r="B107">
+        <v>1779</v>
+      </c>
+      <c r="C107">
+        <v>5528000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>207.7</v>
+      </c>
+      <c r="B108">
+        <v>1757</v>
+      </c>
+      <c r="C108">
+        <v>5581000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>209.7</v>
+      </c>
+      <c r="B109">
+        <v>1735</v>
+      </c>
+      <c r="C109">
+        <v>5631000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>211.7</v>
+      </c>
+      <c r="B110">
+        <v>1714</v>
+      </c>
+      <c r="C110">
+        <v>5680000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>213.7</v>
+      </c>
+      <c r="B111">
+        <v>1694</v>
+      </c>
+      <c r="C111">
+        <v>5728000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>215.7</v>
+      </c>
+      <c r="B112">
+        <v>1674</v>
+      </c>
+      <c r="C112">
+        <v>5774000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>217.7</v>
+      </c>
+      <c r="B113">
+        <v>1655</v>
+      </c>
+      <c r="C113">
+        <v>5819000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>219.7</v>
+      </c>
+      <c r="B114">
+        <v>1637</v>
+      </c>
+      <c r="C114">
+        <v>5862000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>221.7</v>
+      </c>
+      <c r="B115">
+        <v>1619</v>
+      </c>
+      <c r="C115">
+        <v>5905000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>223.7</v>
+      </c>
+      <c r="B116">
+        <v>1602</v>
+      </c>
+      <c r="C116">
+        <v>5946000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>225.7</v>
+      </c>
+      <c r="B117">
+        <v>1585</v>
+      </c>
+      <c r="C117">
+        <v>5986000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>227.7</v>
+      </c>
+      <c r="B118">
+        <v>1568</v>
+      </c>
+      <c r="C118">
+        <v>6025000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>229.7</v>
+      </c>
+      <c r="B119">
+        <v>1552</v>
+      </c>
+      <c r="C119">
+        <v>6064000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>231.7</v>
+      </c>
+      <c r="B120">
+        <v>1537</v>
+      </c>
+      <c r="C120">
+        <v>6101000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>233.7</v>
+      </c>
+      <c r="B121">
+        <v>1522</v>
+      </c>
+      <c r="C121">
+        <v>6137000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>235.7</v>
+      </c>
+      <c r="B122">
+        <v>1507</v>
+      </c>
+      <c r="C122">
+        <v>6173000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>237.7</v>
+      </c>
+      <c r="B123">
+        <v>1492</v>
+      </c>
+      <c r="C123">
+        <v>6208000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>239.7</v>
+      </c>
+      <c r="B124">
+        <v>1478</v>
+      </c>
+      <c r="C124">
+        <v>6242000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>241.7</v>
+      </c>
+      <c r="B125">
+        <v>1464</v>
+      </c>
+      <c r="C125">
+        <v>6275000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>243.7</v>
+      </c>
+      <c r="B126">
+        <v>1451</v>
+      </c>
+      <c r="C126">
+        <v>6308000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>245.7</v>
+      </c>
+      <c r="B127">
+        <v>1438</v>
+      </c>
+      <c r="C127">
+        <v>6340000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>247.7</v>
+      </c>
+      <c r="B128">
+        <v>1425</v>
+      </c>
+      <c r="C128">
+        <v>6371000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>249.7</v>
+      </c>
+      <c r="B129">
+        <v>1412</v>
+      </c>
+      <c r="C129">
+        <v>6402000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>251.7</v>
+      </c>
+      <c r="B130">
+        <v>1400</v>
+      </c>
+      <c r="C130">
+        <v>6432000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>253.7</v>
+      </c>
+      <c r="B131">
+        <v>1388</v>
+      </c>
+      <c r="C131">
+        <v>6461000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>255.7</v>
+      </c>
+      <c r="B132">
+        <v>1376</v>
+      </c>
+      <c r="C132">
+        <v>6490000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>257.7</v>
+      </c>
+      <c r="B133">
+        <v>1364</v>
+      </c>
+      <c r="C133">
+        <v>6519000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>259.7</v>
+      </c>
+      <c r="B134">
+        <v>1353</v>
+      </c>
+      <c r="C134">
+        <v>6547000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>261.7</v>
+      </c>
+      <c r="B135">
+        <v>1342</v>
+      </c>
+      <c r="C135">
+        <v>6574000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>263.7</v>
+      </c>
+      <c r="B136">
+        <v>1331</v>
+      </c>
+      <c r="C136">
+        <v>6601000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>265.7</v>
+      </c>
+      <c r="B137">
+        <v>1320</v>
+      </c>
+      <c r="C137">
+        <v>6628000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>267.7</v>
+      </c>
+      <c r="B138">
+        <v>1309</v>
+      </c>
+      <c r="C138">
+        <v>6654000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>269.7</v>
+      </c>
+      <c r="B139">
+        <v>1299</v>
+      </c>
+      <c r="C139">
+        <v>6680000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>271.7</v>
+      </c>
+      <c r="B140">
+        <v>1289</v>
+      </c>
+      <c r="C140">
+        <v>6705000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>273.7</v>
+      </c>
+      <c r="B141">
+        <v>1279</v>
+      </c>
+      <c r="C141">
+        <v>6730000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>275.7</v>
+      </c>
+      <c r="B142">
+        <v>1269</v>
+      </c>
+      <c r="C142">
+        <v>6754000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>277.7</v>
+      </c>
+      <c r="B143">
+        <v>1259</v>
+      </c>
+      <c r="C143">
+        <v>6779000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>279.7</v>
+      </c>
+      <c r="B144">
+        <v>1250</v>
+      </c>
+      <c r="C144">
+        <v>6802000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>281.7</v>
+      </c>
+      <c r="B145">
+        <v>1241</v>
+      </c>
+      <c r="C145">
+        <v>6825000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>283.7</v>
+      </c>
+      <c r="B146">
+        <v>1231</v>
+      </c>
+      <c r="C146">
+        <v>6848000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>285.7</v>
+      </c>
+      <c r="B147">
+        <v>1222</v>
+      </c>
+      <c r="C147">
+        <v>6871000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>287.7</v>
+      </c>
+      <c r="B148">
+        <v>1213</v>
+      </c>
+      <c r="C148">
+        <v>6893000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>289.7</v>
+      </c>
+      <c r="B149">
+        <v>1205</v>
+      </c>
+      <c r="C149">
+        <v>6915000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>291.7</v>
+      </c>
+      <c r="B150">
+        <v>1196</v>
+      </c>
+      <c r="C150">
+        <v>6936000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>293.7</v>
+      </c>
+      <c r="B151">
+        <v>1187</v>
+      </c>
+      <c r="C151">
+        <v>6958000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>295.7</v>
+      </c>
+      <c r="B152">
+        <v>1179</v>
+      </c>
+      <c r="C152">
+        <v>6979000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>297.7</v>
+      </c>
+      <c r="B153">
+        <v>1171</v>
+      </c>
+      <c r="C153">
+        <v>6999000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>299.7</v>
+      </c>
+      <c r="B154">
+        <v>1163</v>
+      </c>
+      <c r="C154">
+        <v>7020000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>300</v>
+      </c>
+      <c r="B155">
+        <v>1161</v>
+      </c>
+      <c r="C155">
+        <v>7024000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>